--- a/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr2_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr2_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -189,58 +240,58 @@
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="13.64453125" customWidth="true"/>
-    <col min="3" max="3" width="15.24609375" customWidth="true"/>
-    <col min="4" max="4" width="16.24609375" customWidth="true"/>
-    <col min="5" max="5" width="15.77734375" customWidth="true"/>
-    <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="15.77734375" customWidth="true"/>
-    <col min="8" max="8" width="16.24609375" customWidth="true"/>
-    <col min="9" max="9" width="15.77734375" customWidth="true"/>
-    <col min="10" max="10" width="15.24609375" customWidth="true"/>
-    <col min="11" max="11" width="16.24609375" customWidth="true"/>
+    <col min="3" max="3" width="13.64453125" customWidth="true"/>
+    <col min="4" max="4" width="13.64453125" customWidth="true"/>
+    <col min="5" max="5" width="14.64453125" customWidth="true"/>
+    <col min="6" max="6" width="15.64453125" customWidth="true"/>
+    <col min="7" max="7" width="14.24609375" customWidth="true"/>
+    <col min="8" max="8" width="15.64453125" customWidth="true"/>
+    <col min="9" max="9" width="14.64453125" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
+    <col min="11" max="11" width="15.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29192087887316048</v>
+        <v>0.026848477044176422</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29159732392353666</v>
+        <v>-0.16234729775159423</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.00038484953682225455</v>
+        <v>-0.15874645189291667</v>
       </c>
       <c r="E3" s="0">
-        <v>2.7529970442094979e-05</v>
+        <v>-0.014917892124126451</v>
       </c>
       <c r="F3" s="0">
-        <v>0.00011608814831008861</v>
+        <v>-0.032947906410912782</v>
       </c>
       <c r="G3" s="0">
-        <v>-5.5332671881889011e-05</v>
+        <v>0.018366605775460999</v>
       </c>
       <c r="H3" s="0">
-        <v>3.3355270914520007e-06</v>
+        <v>0.00085365788880137003</v>
       </c>
       <c r="I3" s="0">
-        <v>-1.4482557955566489e-05</v>
+        <v>0.0034362100294048218</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-1.584382880776003e-05</v>
+        <v>-0.0052399980614819541</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.30787682142340767</v>
+        <v>0.30573373226434419</v>
       </c>
       <c r="C4" s="0">
-        <v>0.018577231933161315</v>
+        <v>0.35906647667742952</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1.4771078615569832e-05</v>
+        <v>0.0011037179265573295</v>
       </c>
       <c r="F4" s="0">
-        <v>8.7379582094395503e-05</v>
+        <v>0.00063149980771063448</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>1.3661100996837136e-05</v>
+        <v>-0.011338717902946556</v>
       </c>
       <c r="I4" s="0">
-        <v>0.00025999404096479985</v>
+        <v>0.083392822659933738</v>
       </c>
       <c r="J4" s="0">
-        <v>-0.0035250228365403752</v>
+        <v>0.033042614876985024</v>
       </c>
       <c r="K4" s="0">
-        <v>0.00085148260057849035</v>
+        <v>0.0021826159702686976</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.31599332920254841</v>
+        <v>0.36295251289701175</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0.0063336758837317739</v>
+        <v>0.047373708836078568</v>
       </c>
       <c r="E5" s="0">
-        <v>-3.028505132043551e-05</v>
+        <v>0.0531467540669344</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.00021731526926815946</v>
+        <v>-0.045546919239547054</v>
       </c>
       <c r="G5" s="0">
-        <v>0.00042304485917192086</v>
+        <v>-0.028441195536380744</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.00013170539918879164</v>
+        <v>-0.0067685073377236312</v>
       </c>
       <c r="I5" s="0">
-        <v>-8.2052171847568544e-05</v>
+        <v>0.003109622414185235</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.0018211449278620062</v>
+        <v>0.034345317429120781</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.29121517539494202</v>
+        <v>0.32103080182756139</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.0088147855494703845</v>
+        <v>0.044436240105202633</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-7.1331237946149599e-05</v>
+        <v>0.0031878568252171765</v>
       </c>
       <c r="F6" s="0">
-        <v>0.00012795819824309925</v>
+        <v>-0.0033548697661910168</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-0.00048920748576385901</v>
+        <v>-0.0085348679553640689</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.011812578341757307</v>
+        <v>-0.07893451144090248</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.0037182093909117753</v>
+        <v>0.001278441162587407</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.24428485547482459</v>
+        <v>0.44054405487978854</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.045803512535642202</v>
+        <v>0.20416581923089167</v>
       </c>
       <c r="E7" s="0">
-        <v>0.0014837124597583125</v>
+        <v>-0.0024917102403883666</v>
       </c>
       <c r="F7" s="0">
-        <v>0.00023611381203259495</v>
+        <v>-0.070298989712571633</v>
       </c>
       <c r="G7" s="0">
-        <v>-0.0032283749808781686</v>
+        <v>0.0084648541755394657</v>
       </c>
       <c r="H7" s="0">
-        <v>1.2631965504648172e-05</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.00056721867194370269</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.00019810931283631428</v>
+        <v>-0.020326720401244003</v>
       </c>
     </row>
     <row r="8">
